--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>56.47185866666666</v>
+        <v>0.1510096666666667</v>
       </c>
       <c r="H2">
-        <v>169.415576</v>
+        <v>0.453029</v>
       </c>
       <c r="I2">
-        <v>0.8070274173741353</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="J2">
-        <v>0.8070274173741354</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>697.7703893070632</v>
+        <v>1.865886414702445</v>
       </c>
       <c r="R2">
-        <v>6279.933503763567</v>
+        <v>16.792977732322</v>
       </c>
       <c r="S2">
-        <v>0.8070274173741353</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="T2">
-        <v>0.8070274173741354</v>
+        <v>0.01105950042918124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>30.70486</v>
       </c>
       <c r="I3">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="J3">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,10 +632,10 @@
         <v>1138.17444413948</v>
       </c>
       <c r="S3">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="T3">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>9.804991999999999</v>
       </c>
       <c r="I4">
-        <v>0.04670702398186845</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="J4">
-        <v>0.04670702398186845</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>363.453580944256</v>
       </c>
       <c r="S4">
-        <v>0.04670702398186845</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="T4">
-        <v>0.04670702398186845</v>
+        <v>0.2393628514556874</v>
       </c>
     </row>
   </sheetData>
